--- a/BusAddressesFinal.xlsx
+++ b/BusAddressesFinal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan Wootton\Documents\BusProject\BusApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan Wootton\Desktop\College\Spring 2018\Genentech\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DAE05A7D-6C28-4175-BC67-7FACE979B9F8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13640" windowHeight="2230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -872,7 +873,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -902,8 +903,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1217,11 +1219,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1267,10 +1269,10 @@
         <v>66</v>
       </c>
       <c r="E2">
-        <v>-122.3867068</v>
+        <v>-122.38693600000001</v>
       </c>
       <c r="F2">
-        <v>37.600270999999999</v>
+        <v>37.600155999999998</v>
       </c>
       <c r="G2" t="s">
         <v>67</v>
@@ -1423,10 +1425,10 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>-122.4251853</v>
+        <v>-122.42318330000001</v>
       </c>
       <c r="F8">
-        <v>37.787606799999999</v>
+        <v>37.777820299999902</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -1449,10 +1451,10 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>-122.4114895</v>
+        <v>-122.43178899999999</v>
       </c>
       <c r="F9">
-        <v>37.765564099999999</v>
+        <v>37.764595999999997</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -1527,10 +1529,10 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>-121.80067099999999</v>
+        <v>-121.80089</v>
       </c>
       <c r="F12">
-        <v>37.697606999999998</v>
+        <v>37.697702</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
@@ -1761,10 +1763,10 @@
         <v>70</v>
       </c>
       <c r="E21">
-        <v>-122.52525199999999</v>
+        <v>-122.518708</v>
       </c>
       <c r="F21">
-        <v>37.947513000000001</v>
+        <v>37.944609999999997</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
@@ -1839,10 +1841,10 @@
         <v>82</v>
       </c>
       <c r="E24">
-        <v>-122.4761259</v>
+        <v>-122.47676199999999</v>
       </c>
       <c r="F24">
-        <v>37.7505174</v>
+        <v>37.759841999999999</v>
       </c>
       <c r="G24" t="s">
         <v>83</v>
@@ -1865,10 +1867,10 @@
         <v>86</v>
       </c>
       <c r="E25">
-        <v>-122.4761259</v>
+        <v>-122.47651</v>
       </c>
       <c r="F25">
-        <v>37.7505174</v>
+        <v>37.754241999999998</v>
       </c>
       <c r="G25" t="s">
         <v>87</v>
@@ -1890,11 +1892,11 @@
       <c r="D26" t="s">
         <v>90</v>
       </c>
-      <c r="E26">
-        <v>-122.4761259</v>
-      </c>
-      <c r="F26">
-        <v>37.7505174</v>
+      <c r="E26" s="1">
+        <v>-122.47524199999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>37.737456999999999</v>
       </c>
       <c r="G26" t="s">
         <v>91</v>
@@ -1916,11 +1918,11 @@
       <c r="D27" t="s">
         <v>94</v>
       </c>
-      <c r="E27">
-        <v>-122.4761259</v>
-      </c>
-      <c r="F27">
-        <v>37.7505174</v>
+      <c r="E27" s="1">
+        <v>-122.47510800000001</v>
+      </c>
+      <c r="F27" s="1">
+        <v>37.725700000000003</v>
       </c>
       <c r="G27" t="s">
         <v>95</v>
@@ -1942,11 +1944,11 @@
       <c r="D28" t="s">
         <v>99</v>
       </c>
-      <c r="E28">
-        <v>-122.4268019</v>
-      </c>
-      <c r="F28">
-        <v>37.801081000000003</v>
+      <c r="E28" s="1">
+        <v>-122.441016</v>
+      </c>
+      <c r="F28" s="1">
+        <v>37.799267</v>
       </c>
       <c r="G28" t="s">
         <v>100</v>
@@ -1969,10 +1971,10 @@
         <v>103</v>
       </c>
       <c r="E29">
-        <v>-122.4226118</v>
+        <v>-122.424108</v>
       </c>
       <c r="F29">
-        <v>37.791305399999999</v>
+        <v>37.799508000000003</v>
       </c>
       <c r="G29" t="s">
         <v>104</v>
@@ -1995,10 +1997,10 @@
         <v>107</v>
       </c>
       <c r="E30">
-        <v>-122.4251853</v>
+        <v>-122.424702</v>
       </c>
       <c r="F30">
-        <v>37.787606799999999</v>
+        <v>37.785288000000001</v>
       </c>
       <c r="G30" t="s">
         <v>108</v>
@@ -2021,10 +2023,10 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>-122.42318</v>
+        <v>-122.42318330000001</v>
       </c>
       <c r="F31">
-        <v>37.777819999999998</v>
+        <v>37.777820299999902</v>
       </c>
       <c r="G31" t="s">
         <v>115</v>
@@ -2125,10 +2127,10 @@
         <v>132</v>
       </c>
       <c r="E35">
-        <v>-122.4400866</v>
+        <v>-122.43712499999999</v>
       </c>
       <c r="F35">
-        <v>37.786411600000001</v>
+        <v>37.771270999999999</v>
       </c>
       <c r="G35" t="s">
         <v>133</v>
@@ -2151,10 +2153,10 @@
         <v>136</v>
       </c>
       <c r="E36">
-        <v>-122.4342285</v>
+        <v>-122.43502599999999</v>
       </c>
       <c r="F36">
-        <v>37.752499800000002</v>
+        <v>37.760891000000001</v>
       </c>
       <c r="G36" t="s">
         <v>137</v>
@@ -2203,10 +2205,10 @@
         <v>144</v>
       </c>
       <c r="E38">
-        <v>-122.41029279999999</v>
+        <v>-122.413701</v>
       </c>
       <c r="F38">
-        <v>37.748278200000009</v>
+        <v>37.748314999999998</v>
       </c>
       <c r="G38" t="s">
         <v>145</v>
@@ -2489,10 +2491,10 @@
         <v>169</v>
       </c>
       <c r="E49">
-        <v>-122.42399399999999</v>
+        <v>-122.394091</v>
       </c>
       <c r="F49">
-        <v>37.738578199999999</v>
+        <v>37.792529999999999</v>
       </c>
       <c r="G49" t="s">
         <v>170</v>
@@ -2515,10 +2517,10 @@
         <v>173</v>
       </c>
       <c r="E50">
-        <v>-122.3924805</v>
+        <v>-122.393356</v>
       </c>
       <c r="F50">
-        <v>37.789338700000002</v>
+        <v>37.789900000000003</v>
       </c>
       <c r="G50" t="s">
         <v>174</v>
@@ -2541,10 +2543,10 @@
         <v>177</v>
       </c>
       <c r="E51">
-        <v>-122.392144</v>
+        <v>-122.39277199999999</v>
       </c>
       <c r="F51">
-        <v>37.779159</v>
+        <v>37.778858</v>
       </c>
       <c r="G51" t="s">
         <v>178</v>
@@ -2619,10 +2621,10 @@
         <v>218</v>
       </c>
       <c r="E54">
-        <v>-122.40610959999999</v>
+        <v>-122.40477</v>
       </c>
       <c r="F54">
-        <v>37.7732198</v>
+        <v>37.774284999999999</v>
       </c>
       <c r="G54" t="s">
         <v>219</v>
@@ -2671,10 +2673,10 @@
         <v>226</v>
       </c>
       <c r="E56">
-        <v>-122.39832029999999</v>
+        <v>-122.396618</v>
       </c>
       <c r="F56">
-        <v>37.776896399999998</v>
+        <v>37.778288000000003</v>
       </c>
       <c r="G56" t="s">
         <v>227</v>
@@ -2697,10 +2699,10 @@
         <v>231</v>
       </c>
       <c r="E57">
-        <v>-121.9477737</v>
+        <v>-121.947667</v>
       </c>
       <c r="F57">
-        <v>38.390749300000003</v>
+        <v>38.391142000000002</v>
       </c>
       <c r="G57" t="s">
         <v>232</v>
@@ -2726,7 +2728,7 @@
         <v>-122.1556162</v>
       </c>
       <c r="F58">
-        <v>38.205162600000001</v>
+        <v>38.205162999999999</v>
       </c>
       <c r="G58" t="s">
         <v>235</v>
@@ -2801,10 +2803,10 @@
         <v>262</v>
       </c>
       <c r="E61">
-        <v>-122.157708</v>
+        <v>-122.157704</v>
       </c>
       <c r="F61">
-        <v>38.044646999999998</v>
+        <v>38.044671999999998</v>
       </c>
       <c r="G61" t="s">
         <v>263</v>
